--- a/output_v3.xlsx
+++ b/output_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C25A9-DF2B-4242-A4EB-2C078A46834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C7B47-DD1B-4BA9-89A1-C8D1F7A72EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="273">
   <si>
     <t>점포명</t>
   </si>
@@ -856,10 +856,6 @@
   </si>
   <si>
     <t>임철만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오향은</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1269,19 +1265,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1291,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1312,7 +1308,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1329,7 +1325,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1346,7 +1342,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1363,7 +1359,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1380,7 +1376,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1397,7 +1393,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1414,7 +1410,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1431,7 +1427,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1448,7 +1444,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1465,7 +1461,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1482,7 +1478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1499,7 +1495,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1516,7 +1512,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1533,7 +1529,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1550,7 +1546,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1567,7 +1563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1601,7 +1597,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1618,7 +1614,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1635,7 +1631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1652,7 +1648,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1669,7 +1665,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1686,7 +1682,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1703,7 +1699,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1720,7 +1716,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1754,7 +1750,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1771,7 +1767,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1788,7 +1784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1805,7 +1801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1822,7 +1818,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1839,7 +1835,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1856,7 +1852,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1873,7 +1869,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1890,7 +1886,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1907,7 +1903,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1924,7 +1920,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1941,7 +1937,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1958,7 +1954,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1975,7 +1971,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1992,7 +1988,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2009,7 +2005,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2026,7 +2022,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2043,7 +2039,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2060,7 +2056,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2077,7 +2073,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2094,7 +2090,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2111,7 +2107,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2128,7 +2124,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2162,7 +2158,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2179,7 +2175,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2196,7 +2192,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2213,7 +2209,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2230,7 +2226,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2247,7 +2243,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2298,7 +2294,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2315,7 +2311,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2332,7 +2328,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2349,7 +2345,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2366,7 +2362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2383,7 +2379,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2400,7 +2396,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2417,7 +2413,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2434,7 +2430,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2451,7 +2447,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2468,7 +2464,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2485,7 +2481,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2536,7 +2532,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2553,7 +2549,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2570,7 +2566,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2587,7 +2583,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2604,7 +2600,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2638,7 +2634,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2655,7 +2651,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2669,10 +2665,10 @@
         <v>255</v>
       </c>
       <c r="E82" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2689,7 +2685,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2706,7 +2702,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2723,7 +2719,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2740,7 +2736,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2757,7 +2753,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2774,7 +2770,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2788,10 +2784,10 @@
         <v>262</v>
       </c>
       <c r="E89" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2805,7 +2801,7 @@
         <v>263</v>
       </c>
       <c r="E90" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
